--- a/Stocks/TATACOMM.xlsx
+++ b/Stocks/TATACOMM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>716.16666666666663</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>663.86706879285566</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>659.75468746522984</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>38.331240811571831</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>3.0499999999999545</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>11.799999999999955</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.25847457627118359</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>676.38927428806676</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-9.2556866021575388</v>
       </c>
       <c r="Y67">
         <v>-10.159397489993117</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>640</v>
+      </c>
+      <c r="D83">
+        <v>666.4</v>
+      </c>
+      <c r="E83">
+        <v>640</v>
+      </c>
+      <c r="F83">
+        <v>665.9</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>657.43333333333339</v>
+      </c>
+      <c r="H83">
+        <v>647.04200846967763</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>649.16889956763259</v>
+      </c>
+      <c r="K83">
+        <v>625.22701953291266</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>73.452763001437631</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>25.899999999999977</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>26.399999999999977</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.98106060606060608</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>638.92563152095897</v>
+      </c>
+      <c r="W83">
+        <v>645.79680295363289</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-6.8711714326739184</v>
+      </c>
+      <c r="Y83">
+        <v>-12.267182129033248</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>661</v>
+      </c>
+      <c r="D84">
+        <v>663.95</v>
+      </c>
+      <c r="E84">
+        <v>641.25</v>
+      </c>
+      <c r="F84">
+        <v>646</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>650.4</v>
+      </c>
+      <c r="H84">
+        <v>648.7210042348388</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>652.45358855260315</v>
+      </c>
+      <c r="K84">
+        <v>628.78768185893205</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>54.043129554606715</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4.75</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>22.700000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.20925110132158548</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>640.01399590234985</v>
+      </c>
+      <c r="W84">
+        <v>645.81185458669711</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-5.7978586843472613</v>
+      </c>
+      <c r="Y84">
+        <v>-10.97331744009605</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>650.15</v>
+      </c>
+      <c r="D85">
+        <v>658.45</v>
+      </c>
+      <c r="E85">
+        <v>649.9</v>
+      </c>
+      <c r="F85">
+        <v>652.29999999999995</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>653.54999999999995</v>
+      </c>
+      <c r="H85">
+        <v>651.13550211741938</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>653.7861244298025</v>
+      </c>
+      <c r="K85">
+        <v>633.47930811250274</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>58.393877523613099</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.3999999999999773</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>8.5500000000000682</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.28070175438596001</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>641.90415037891137</v>
+      </c>
+      <c r="W85">
+        <v>646.29245795064548</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-4.3883075717341171</v>
+      </c>
+      <c r="Y85">
+        <v>-9.6563154664236635</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>651</v>
+      </c>
+      <c r="D86">
+        <v>659.05</v>
+      </c>
+      <c r="E86">
+        <v>645.29999999999995</v>
+      </c>
+      <c r="F86">
+        <v>656.5</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>653.61666666666667</v>
+      </c>
+      <c r="H86">
+        <v>652.37608439204303</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>654.95587455651309</v>
+      </c>
+      <c r="K86">
+        <v>636.10612853194652</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>61.436244213297677</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>11.200000000000045</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>13.75</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.8145454545454579</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>644.14966570523268</v>
+      </c>
+      <c r="W86">
+        <v>647.04857217652363</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-2.8989064712909567</v>
+      </c>
+      <c r="Y86">
+        <v>-8.3048336673971228</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>656.95</v>
+      </c>
+      <c r="D87">
+        <v>669.8</v>
+      </c>
+      <c r="E87">
+        <v>651.65</v>
+      </c>
+      <c r="F87">
+        <v>667</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>662.81666666666661</v>
+      </c>
+      <c r="H87">
+        <v>657.59637552935487</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>658.25456909951015</v>
+      </c>
+      <c r="K87">
+        <v>639.56032219151393</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>68.609315163344434</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>15.350000000000023</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>18.149999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.84573002754821169</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>647.66510175058147</v>
+      </c>
+      <c r="W87">
+        <v>648.52645571900337</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-0.86135396842189493</v>
+      </c>
+      <c r="Y87">
+        <v>-6.8161377276020776</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>670</v>
+      </c>
+      <c r="D88">
+        <v>670</v>
+      </c>
+      <c r="E88">
+        <v>645</v>
+      </c>
+      <c r="F88">
+        <v>652</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>655.66666666666663</v>
+      </c>
+      <c r="H88">
+        <v>656.63152109801081</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>660.86466485517451</v>
+      </c>
+      <c r="K88">
+        <v>640.76913948228867</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>51.502590968554429</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>648.33200917356896</v>
+      </c>
+      <c r="W88">
+        <v>648.78375529537345</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-0.45174612180449003</v>
+      </c>
+      <c r="Y88">
+        <v>-5.5432594064425604</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>653</v>
+      </c>
+      <c r="D89">
+        <v>663.75</v>
+      </c>
+      <c r="E89">
+        <v>651.25</v>
+      </c>
+      <c r="F89">
+        <v>661.3</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>658.76666666666665</v>
+      </c>
+      <c r="H89">
+        <v>657.69909388233873</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>661.50585044291347</v>
+      </c>
+      <c r="K89">
+        <v>643.09821959733563</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>59.356359127969952</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>10.049999999999955</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.80399999999999638</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>650.32708468532758</v>
+      </c>
+      <c r="W89">
+        <v>649.7108845327532</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>0.61620015257437899</v>
+      </c>
+      <c r="Y89">
+        <v>-4.3113674946391729</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>657.9</v>
+      </c>
+      <c r="D90">
+        <v>664.95</v>
+      </c>
+      <c r="E90">
+        <v>654.04999999999995</v>
+      </c>
+      <c r="F90">
+        <v>656</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>658.33333333333337</v>
+      </c>
+      <c r="H90">
+        <v>658.01621360783611</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>662.27121701115493</v>
+      </c>
+      <c r="K90">
+        <v>645.53194857570543</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>53.217128975815342</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1.9500000000000455</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>10.900000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.17889908256881001</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>651.19984088758486</v>
+      </c>
+      <c r="W90">
+        <v>650.1767449377345</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>1.023095949850358</v>
+      </c>
+      <c r="Y90">
+        <v>-3.2444748057412669</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>658.9</v>
+      </c>
+      <c r="D91">
+        <v>674.8</v>
+      </c>
+      <c r="E91">
+        <v>658.5</v>
+      </c>
+      <c r="F91">
+        <v>665</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>666.1</v>
+      </c>
+      <c r="H91">
+        <v>662.05810680391801</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>665.055391008676</v>
+      </c>
+      <c r="K91">
+        <v>648.41373778110426</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>61.639073902285602</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>16.299999999999955</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.39877300613497046</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>653.3229422894949</v>
+      </c>
+      <c r="W91">
+        <v>651.27476383123565</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>2.0481784582592582</v>
+      </c>
+      <c r="Y91">
+        <v>-2.1859441529411621</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>666.55</v>
+      </c>
+      <c r="D92">
+        <v>674</v>
+      </c>
+      <c r="E92">
+        <v>660</v>
+      </c>
+      <c r="F92">
+        <v>663</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>665.66666666666663</v>
+      </c>
+      <c r="H92">
+        <v>663.86238673529238</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>667.04308189563687</v>
+      </c>
+      <c r="K92">
+        <v>650.9884627186367</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>58.703538604995721</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>654.81172039880335</v>
+      </c>
+      <c r="W92">
+        <v>652.14329984373671</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>2.668420555066632</v>
+      </c>
+      <c r="Y92">
+        <v>-1.2150712113396032</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>665</v>
+      </c>
+      <c r="D93">
+        <v>680.9</v>
+      </c>
+      <c r="E93">
+        <v>664</v>
+      </c>
+      <c r="F93">
+        <v>678.95</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>674.61666666666667</v>
+      </c>
+      <c r="H93">
+        <v>669.23952670097947</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>670.12239702993975</v>
+      </c>
+      <c r="K93">
+        <v>653.87991544782858</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>71.997796801101941</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>16.899999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.88461538461538847</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>658.52530187591049</v>
+      </c>
+      <c r="W93">
+        <v>654.12898133679323</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>4.3963205391172551</v>
+      </c>
+      <c r="Y93">
+        <v>-9.2792861248231384E-2</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>676.5</v>
+      </c>
+      <c r="D94">
+        <v>702.4</v>
+      </c>
+      <c r="E94">
+        <v>676.5</v>
+      </c>
+      <c r="F94">
+        <v>698</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>692.30000000000007</v>
+      </c>
+      <c r="H94">
+        <v>680.76976335048971</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>677.29519768995317</v>
+      </c>
+      <c r="K94">
+        <v>658.90660090386666</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>81.087426687627513</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>21.5</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>25.899999999999977</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.8301158301158309</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>664.59833235653969</v>
+      </c>
+      <c r="W94">
+        <v>657.37868642295666</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>7.2196459335830241</v>
+      </c>
+      <c r="Y94">
+        <v>1.3696948977180197</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>679.45</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>686.40000000000009</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>689.45</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>692.5</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>704.8</v>
+      </c>
+      <c r="D95">
+        <v>705</v>
+      </c>
+      <c r="E95">
+        <v>678.45</v>
+      </c>
+      <c r="F95">
+        <v>685.5</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>689.65</v>
+      </c>
+      <c r="H95">
+        <v>685.20988167524479</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>683.45182042551914</v>
+      </c>
+      <c r="K95">
+        <v>663.2495784807852</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>64.037782256502211</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>7.0499999999999545</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>26.549999999999955</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.26553672316384053</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>667.81397353245666</v>
+      </c>
+      <c r="W95">
+        <v>659.46174668792287</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>8.3522268445337886</v>
+      </c>
+      <c r="Y95">
+        <v>2.7662012870811736</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>684.9</v>
+      </c>
+      <c r="D96">
+        <v>725.6</v>
+      </c>
+      <c r="E96">
+        <v>684.5</v>
+      </c>
+      <c r="F96">
+        <v>704.25</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>704.7833333333333</v>
+      </c>
+      <c r="H96">
+        <v>694.99660750428905</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>692.81808255318151</v>
+      </c>
+      <c r="K96">
+        <v>667.971894373944</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>74.206620315065834</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>19.75</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>41.100000000000023</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.48053527980535254</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>673.41951606592488</v>
+      </c>
+      <c r="W96">
+        <v>662.77939508141003</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>10.640120984514851</v>
+      </c>
+      <c r="Y96">
+        <v>4.3409852265679092</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>714</v>
+      </c>
+      <c r="D97">
+        <v>729</v>
+      </c>
+      <c r="E97">
+        <v>700</v>
+      </c>
+      <c r="F97">
+        <v>707.7</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>712.23333333333323</v>
+      </c>
+      <c r="H97">
+        <v>703.61497041881114</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>700.85850865247448</v>
+      </c>
+      <c r="K97">
+        <v>675.08925117973422</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>75.781678973955081</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>7.7000000000000455</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>29</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.26551724137931193</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>678.69343667116721</v>
+      </c>
+      <c r="W97">
+        <v>666.10684729760192</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>12.586589373565289</v>
+      </c>
+      <c r="Y97">
+        <v>5.9901060559673853</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>720</v>
+      </c>
+      <c r="D98">
+        <v>721</v>
+      </c>
+      <c r="E98">
+        <v>703.3</v>
+      </c>
+      <c r="F98">
+        <v>706</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>710.1</v>
+      </c>
+      <c r="H98">
+        <v>706.85748520940558</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>705.33439561859132</v>
+      </c>
+      <c r="K98">
+        <v>681.35830647312662</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>73.034686374327634</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.7000000000000455</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>17.700000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.15254237288135811</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>682.89444641406453</v>
+      </c>
+      <c r="W98">
+        <v>669.06189564592773</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>13.832550768136798</v>
+      </c>
+      <c r="Y98">
+        <v>7.5585949984012677</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>708</v>
+      </c>
+      <c r="D99">
+        <v>716.7</v>
+      </c>
+      <c r="E99">
+        <v>703.55</v>
+      </c>
+      <c r="F99">
+        <v>705.55</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>708.6</v>
+      </c>
+      <c r="H99">
+        <v>707.7287426047028</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>707.86008548112659</v>
+      </c>
+      <c r="K99">
+        <v>686.2897939235429</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>72.169084736813431</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>13.150000000000091</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.15209125475285065</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>686.37991619651609</v>
+      </c>
+      <c r="W99">
+        <v>671.76471819067388</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>14.615198005842217</v>
+      </c>
+      <c r="Y99">
+        <v>8.9699155998894575</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>705.2</v>
+      </c>
+      <c r="D100">
+        <v>706.45</v>
+      </c>
+      <c r="E100">
+        <v>693.1</v>
+      </c>
+      <c r="F100">
+        <v>695.4</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>698.31666666666672</v>
+      </c>
+      <c r="H100">
+        <v>703.0227046356847</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>707.54673315198738</v>
+      </c>
+      <c r="K100">
+        <v>687.80317305164454</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>54.093338741170136</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>13.350000000000023</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.17228464419475287</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>687.76762139705204</v>
+      </c>
+      <c r="W100">
+        <v>673.51547980617954</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>14.252141590872498</v>
+      </c>
+      <c r="Y100">
+        <v>10.026360798086065</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>696</v>
+      </c>
+      <c r="D101">
+        <v>710.85</v>
+      </c>
+      <c r="E101">
+        <v>685.35</v>
+      </c>
+      <c r="F101">
+        <v>703</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>699.73333333333323</v>
+      </c>
+      <c r="H101">
+        <v>701.37801898450903</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>708.28079245154572</v>
+      </c>
+      <c r="K101">
+        <v>687.25802348461241</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>62.811278172283245</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>17.649999999999977</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>25.5</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.69215686274509713</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>690.11106425904404</v>
+      </c>
+      <c r="W101">
+        <v>675.69951833905509</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>14.411545919988953</v>
+      </c>
+      <c r="Y101">
+        <v>10.903397822466642</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>702.95</v>
+      </c>
+      <c r="D102">
+        <v>703</v>
+      </c>
+      <c r="E102">
+        <v>678.05</v>
+      </c>
+      <c r="F102">
+        <v>680.15</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>687.06666666666661</v>
+      </c>
+      <c r="H102">
+        <v>694.22234282558782</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>707.10728301786889</v>
+      </c>
+      <c r="K102">
+        <v>685.21179604358747</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>36.65225706666542</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>24.950000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>8.4168336673347457E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>688.57859283457572</v>
+      </c>
+      <c r="W102">
+        <v>676.02918364727327</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>12.549409187302444</v>
+      </c>
+      <c r="Y102">
+        <v>11.232600095433803</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>680</v>
+      </c>
+      <c r="D103">
+        <v>698</v>
+      </c>
+      <c r="E103">
+        <v>672.25</v>
+      </c>
+      <c r="F103">
+        <v>687.95</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>686.06666666666661</v>
+      </c>
+      <c r="H103">
+        <v>690.14450474612727</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>705.08344234723131</v>
+      </c>
+      <c r="K103">
+        <v>682.3313969227903</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>46.2109057461264</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>15.700000000000045</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>25.75</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.60970873786407942</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>688.48188624464103</v>
+      </c>
+      <c r="W103">
+        <v>676.91220708080857</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>11.569679163832461</v>
+      </c>
+      <c r="Y103">
+        <v>11.300015909113535</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>688</v>
+      </c>
+      <c r="D104">
+        <v>705</v>
+      </c>
+      <c r="E104">
+        <v>685</v>
+      </c>
+      <c r="F104">
+        <v>686.55</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>692.18333333333339</v>
+      </c>
+      <c r="H104">
+        <v>691.16391903973033</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>705.06489960340218</v>
+      </c>
+      <c r="K104">
+        <v>682.9244198288369</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>44.697713498892732</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>1.5499999999999545</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>7.7499999999997723E-2</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>688.18467297623476</v>
+      </c>
+      <c r="W104">
+        <v>677.62611766741531</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>10.55855530881945</v>
+      </c>
+      <c r="Y104">
+        <v>11.151723789054717</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>690</v>
+      </c>
+      <c r="D105">
+        <v>695.9</v>
+      </c>
+      <c r="E105">
+        <v>664.75</v>
+      </c>
+      <c r="F105">
+        <v>671</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>677.2166666666667</v>
+      </c>
+      <c r="H105">
+        <v>684.19029285319857</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>703.02825524709056</v>
+      </c>
+      <c r="K105">
+        <v>678.8856598668732</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>30.727805577029006</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>6.25</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>31.149999999999977</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.20064205457463899</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>685.54087713373713</v>
+      </c>
+      <c r="W105">
+        <v>677.13529413649565</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>8.4055829972414813</v>
+      </c>
+      <c r="Y105">
+        <v>10.60249563069207</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>667.25</v>
+      </c>
+      <c r="D106">
+        <v>682.45</v>
+      </c>
+      <c r="E106">
+        <v>667.05</v>
+      </c>
+      <c r="F106">
+        <v>673</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>674.16666666666663</v>
+      </c>
+      <c r="H106">
+        <v>679.17847975993254</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>698.455309636626</v>
+      </c>
+      <c r="K106">
+        <v>676.25551322979027</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>34.042053389246476</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>5.9500000000000455</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>15.400000000000091</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.38636363636363702</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>683.61151142085453</v>
+      </c>
+      <c r="W106">
+        <v>676.82897605231074</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>6.7825353685437904</v>
+      </c>
+      <c r="Y106">
+        <v>9.8385035782624151</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>673</v>
+      </c>
+      <c r="D107">
+        <v>690</v>
+      </c>
+      <c r="E107">
+        <v>672.95</v>
+      </c>
+      <c r="F107">
+        <v>689</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>683.98333333333323</v>
+      </c>
+      <c r="H107">
+        <v>681.58090654663283</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>696.576351939598</v>
+      </c>
+      <c r="K107">
+        <v>675.5209547342813</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>55.386746959074998</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>16.049999999999955</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>17.049999999999955</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.94134897360703795</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>684.44050966379996</v>
+      </c>
+      <c r="W107">
+        <v>677.73053338176919</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>6.709976282030766</v>
+      </c>
+      <c r="Y107">
+        <v>9.2127981190160853</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
